--- a/biology/Botanique/Maranthes_polyandra/Maranthes_polyandra.xlsx
+++ b/biology/Botanique/Maranthes_polyandra/Maranthes_polyandra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maranthes polyandra (Benth.) Prance[3] est une espèce de plantes à fleurs de la famille des Chrysobalanaceae, selon la classification phylogénétique. C'est un arbre africain.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maranthes polyandra (Benth.) Prance est une espèce de plantes à fleurs de la famille des Chrysobalanaceae, selon la classification phylogénétique. C'est un arbre africain.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet arbre peut mesurer environ 8 mètres. Il possède un tronc noueux et tordu, et est souvent déformé par le feu. 
 Sous sa forme de buisson d'environ 5 mètres de hauteur, on le reconnaît bien à ses branches tordues. Dans les deux cas, l'espèce est caractérisée par une cime étalée.  
-Cette espèce se développe dans les prairies boisées, les forêts et dans les broussailles. Elle est très répandue en Afrique tropicale[4]. 
+Cette espèce se développe dans les prairies boisées, les forêts et dans les broussailles. Elle est très répandue en Afrique tropicale. 
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (27 juillet 2017)[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (27 juillet 2017) :
 sous-espèce Maranthes polyandra subsp. floribunda (Baker) Prance</t>
         </is>
       </c>
